--- a/Fase 2/GA5/1064/AA2/EV01/Formato_Propuesta.xlsx
+++ b/Fase 2/GA5/1064/AA2/EV01/Formato_Propuesta.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soportetecnico02\Downloads\IE-GA5-240201064-AA2-EV01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://misenaeduco-my.sharepoint.com/personal/wjespinosa1_misena_edu_co/Documents/BD/ADSO/Fase 2/GA5/1064/AA2/EV01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B872CE-DAD7-43E9-9DB8-9BC50201FBAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{D1B872CE-DAD7-43E9-9DB8-9BC50201FBAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A450645-AA39-45A9-B2E1-D46E4FC111DF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="854" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Etapa 1. Preparación " sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="97">
   <si>
     <t>Versión: 01</t>
   </si>
@@ -108,12 +108,6 @@
   </si>
   <si>
     <t xml:space="preserve">Técnicas e instrumentos de recolección de información: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conclusiones </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resultados e interpretación </t>
   </si>
   <si>
     <t xml:space="preserve">Registro de búsqueda </t>
@@ -209,9 +203,6 @@
 ¿Cómo se puede presentar la información de manera clara y efectiva en un portafolio web de desarrollador para demostrar habilidades y experiencia?
 ¿Cuáles son las tendencias actuales en el diseño de portafolios web de desarrolladores y cómo se pueden aplicar para crear un diseño atractivo y fácil de navegar?
 ¿Cómo se puede utilizar el SEO (Search Engine Optimization) en un portafolio web de desarrollador para aumentar su visibilidad en línea y atraer más posibles empleadores o clientes?</t>
-  </si>
-  <si>
-    <t>Población o conjunto de elementos objeto de investigación:La población o conjunto de elementos objeto de investigación en este caso son los desarrolladores de tecnología que buscan crear un portafolio web efectivo para destacar en la competencia y demostrar sus habilidades y experiencia a posibles empleadores o clientes. Esto incluye tanto a desarrolladores de software como de aplicaciones móviles, diseño web, desarrollo de juegos, entre otros.</t>
   </si>
   <si>
     <t>Objetivo general:El objetivo general de la investigación es identificar las mejores prácticas y tendencias actuales para crear un portafolio web efectivo para desarrolladores de tecnología, con el fin de destacar en la competencia, presentar la información de manera clara y efectiva, y crear un diseño atractivo y fácil de navegar, que pueda aumentar su visibilidad en línea y atraer más posibles empleadores o clientes.</t>
@@ -390,12 +381,125 @@
 Tiempo y dedicación para llevar a cabo las diferentes fases de la investigación, incluyendo la planificación, la recolección de datos, el análisis y la redacción del informe final.
 Presupuesto para cubrir los costos asociados con la investigación, como el acceso a plataformas en línea y la transcripción de las entrevistas en profundidad.</t>
   </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>entrevistas en profundidad, desarrolladores de tecnología, portafolios web</t>
+  </si>
+  <si>
+    <t>Transcripciones de las entrevistas realizadas con los desarrolladores de tecnología.</t>
+  </si>
+  <si>
+    <t>Información detallada sobre la experiencia de los desarrolladores de tecnología en la creación de portafolios web, incluyendo las mejores prácticas y las tendencias actuales.</t>
+  </si>
+  <si>
+    <t>se pueden utilizar diversas bases de datos académicas, como JSTOR, EBSCO, etc.</t>
+  </si>
+  <si>
+    <t>revisión documental, portafolios web, mejores prácticas, tendencias actuales</t>
+  </si>
+  <si>
+    <t>se pueden utilizar diversos recursos web, como blogs especializados, sitios web de expertos, etc.</t>
+  </si>
+  <si>
+    <t>Artículos, libros y otros recursos relevantes para la investigación sobre la creación de portafolios web.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Información adicional sobre las mejores prácticas y las tendencias actuales en la creación de portafolios web obtenida de la revisión de la literatura existente.</t>
+  </si>
+  <si>
+    <t>análisis de portafolios web, tendencias actuales, mejores prácticas</t>
+  </si>
+  <si>
+    <t>se pueden utilizar diversos recursos web, como portafolios web de expertos, etc.</t>
+  </si>
+  <si>
+    <t>Resultados del análisis de diferentes portafolios web creados por desarrolladores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Identificación de las tendencias actuales y las mejores prácticas en la creación de portafolios web a partir del análisis de diferentes portafolios web</t>
+  </si>
+  <si>
+    <t>Población o conjunto de elementos objeto de investigación: La población o conjunto de elementos objeto de investigación en este caso son los desarrolladores de tecnología que buscan crear un portafolio web efectivo para destacar en la competencia y demostrar sus habilidades y experiencia a posibles empleadores o clientes. Esto incluye tanto a desarrolladores de software como de aplicaciones móviles, diseño web, desarrollo de juegos, entre otros.</t>
+  </si>
+  <si>
+    <t>Encuesta en línea</t>
+  </si>
+  <si>
+    <t>Cuestionario</t>
+  </si>
+  <si>
+    <t>Anónimo, autoadministrado, estructurado, escala de Likert</t>
+  </si>
+  <si>
+    <t>El aprendiz</t>
+  </si>
+  <si>
+    <t>Responde todas las preguntas con sinceridad y honestidad. No hay respuestas correctas o incorrectas.</t>
+  </si>
+  <si>
+    <t>Esta encuesta tiene como objetivo recopilar información sobre la creación de portafolios web para desarrolladores. Tus respuestas serán utilizadas para comprender mejor cómo los desarrolladores crean y utilizan sus portafolios en línea.</t>
+  </si>
+  <si>
+    <t>Definir los objetivos del instrumento: Antes de comenzar a diseñar el instrumento es importante tener claridad sobre los objetivos que se quieren lograr con la información recolectada. Estos objetivos deben estar en línea con los objetivos del estudio.</t>
+  </si>
+  <si>
+    <t>Seleccionar la técnica de recolección de información: Una vez definidos los objetivos del instrumento, se debe seleccionar la técnica de recolección de información más adecuada para cumplirlos. En este caso, se podría considerar una encuesta en línea, una entrevista virtual, un cuestionario en línea, entre otras opciones.</t>
+  </si>
+  <si>
+    <t>Definir el tipo de instrumento: En función de la técnica seleccionada, se debe definir el tipo de instrumento a utilizar. Por ejemplo, si se selecciona una encuesta en línea, se podría diseñar un cuestionario estructurado con preguntas cerradas.</t>
+  </si>
+  <si>
+    <t>Elaborar el instrumento: Una vez definido el tipo de instrumento, se procede a elaborarlo. Se deben incluir preguntas que permitan obtener la información necesaria para cumplir los objetivos del estudio. Es importante asegurarse de que las preguntas sean claras y fáciles de entender para los participantes.</t>
+  </si>
+  <si>
+    <t>Validar el instrumento: Antes de utilizar el instrumento, es necesario realizar una validación del mismo. Se debe evaluar si las preguntas son adecuadas para cumplir los objetivos, si son comprensibles para los participantes, si no hay preguntas redundantes, entre otros aspectos.</t>
+  </si>
+  <si>
+    <t>Piloteo del instrumento: Es necesario realizar una prueba piloto del instrumento, con un grupo de personas representativas de la población objetivo, para evaluar su comprensión y adecuación, y realizar los ajustes necesarios antes de aplicar el instrumento definitivo.</t>
+  </si>
+  <si>
+    <t>Aplicar el instrumento: Una vez validado y piloteado el instrumento, se procede a su aplicación en la población objetivo. Se debe asegurar que se sigan las instrucciones definidas en el instrumento, y que se mantenga la confidencialidad de la información recolectada.</t>
+  </si>
+  <si>
+    <t>Tabular y analizar la información recolectada: Finalmente, se procede a la tabulación y análisis de la información recolectada, para cumplir con los objetivos del estudio.</t>
+  </si>
+  <si>
+    <t>Para el análisis de los datos recolectados a través del cuestionario, se pueden utilizar diversas herramientas estadísticas, dependiendo de la naturaleza de las preguntas incluidas en el instrumento. Algunas de las herramientas más comunes para el análisis de datos de encuestas son:
+Análisis descriptivo: permite resumir los datos recolectados en términos de frecuencia, distribución, medidas de tendencia central y dispersión, entre otros indicadores. Esta herramienta es útil para obtener una visión general de los datos y para identificar patrones y tendencias en las respuestas de los participantes.
+Análisis de correlación: permite evaluar la relación entre dos o más variables incluidas en el cuestionario. Esta herramienta es útil para explorar la existencia de asociaciones entre las variables y para identificar posibles factores que puedan influir en la creación de portafolios web por parte de los desarrolladores.
+Análisis de regresión: permite modelar la relación entre una variable dependiente y una o más variables independientes incluidas en el cuestionario. Esta herramienta es útil para evaluar el impacto de las variables independientes sobre la variable dependiente y para identificar los factores que mejor explican la creación de portafolios web por parte de los desarrolladores.
+En general, el análisis de los datos debe estar enfocado en cumplir los objetivos del estudio y en proporcionar respuestas claras y útiles a las preguntas planteadas en el cuestionario. Es importante tener en cuenta que el análisis de los datos debe ser riguroso y transparente, y que debe estar respaldado por una adecuada documentación de los procesos y decisiones tomadas durante todo el estudio.</t>
+  </si>
+  <si>
+    <t>Resultados e interpretación 
+Para la interpretación de los resultados del ejercicio de investigación formativa, es necesario considerar los objetivos planteados al inicio de la investigación. En primer lugar, se debe evaluar si los resultados obtenidos confirman la existencia del problema que se planteó. Si los datos recolectados muestran que efectivamente existe el problema, se debe analizar cuáles son sus causas y su incidencia.
+En este análisis, es importante sustentar los resultados con datos, gráficas u otras herramientas que permitan visualizar claramente la información recolectada. Se recomienda utilizar tablas o figuras para presentar los datos de manera ordenada y clara. Además, es importante que el análisis de los resultados sea detallado y se evalúen e interpreten sus implicaciones.
+Es importante destacar los hallazgos más relevantes en la interpretación de los resultados, y no repetir la información presentada en las tablas o figuras. Es fundamental que los resultados sean sintetizados de manera breve, para facilitar su comprensión.
+En cuanto al análisis de los datos, se debe evaluar la relación de los resultados con los supuestos teóricos y la literatura existente. En este sentido, se debe justificar las conclusiones obtenidas en función de la literatura existente y los objetivos planteados al inicio del ejercicio de investigación formativa.
+En resumen, la interpretación de los resultados del ejercicio de investigación formativa debe ser rigurosa y estar sustentada en datos y herramientas visuales que permitan una comprensión clara de la información recolectada. Se debe evaluar la existencia del problema planteado, sus causas e incidencia, y justificar las conclusiones obtenidas en función de la literatura existente y los objetivos planteados.
+Para interpretar los resultados de un ejercicio de investigación formativa, es importante tener en cuenta los objetivos que se definieron al inicio del proceso. La interpretación de los resultados debe estar enfocada en responder las preguntas planteadas y en sacar conclusiones que permitan mejorar el proceso formativo.
+A continuación, se presentan algunos pasos a seguir para interpretar los resultados del ejercicio de investigación formativa:
+Analizar los datos: Se debe revisar la información recolectada y analizarla para encontrar patrones o tendencias relevantes. Es importante utilizar herramientas estadísticas y gráficas para facilitar el análisis.
+Identificar los hallazgos relevantes: Una vez analizados los datos, se deben identificar los hallazgos que son relevantes para responder las preguntas planteadas. Es importante comparar los resultados con los objetivos del estudio y evaluar si se han alcanzado.
+Sacar conclusiones: A partir de los hallazgos identificados, se deben sacar conclusiones que permitan mejorar el proceso formativo. Estas conclusiones deben estar respaldadas por los datos recolectados y analizados.
+Hacer recomendaciones: Basándose en las conclusiones obtenidas, se deben hacer recomendaciones específicas para mejorar el proceso formativo. Estas recomendaciones deben ser claras, realistas y concretas.
+Comunicar los resultados: Finalmente, se deben comunicar los resultados y las recomendaciones a los involucrados en el proceso formativo. Es importante utilizar un lenguaje claro y sencillo para facilitar la comprensión y la implementación de las recomendaciones. También se puede utilizar gráficos y visualizaciones para hacer más fácil la comprensión de la información.</t>
+  </si>
+  <si>
+    <t>Conclusiones 
+Basándonos en los resultados y análisis presentados, se puede concluir que el desarrollo de un portafolio web es una herramienta esencial para los desarrolladores que buscan destacarse en el mercado laboral. A través de la investigación formativa realizada, se pudo determinar que la creación de un portafolio web bien diseñado y estructurado puede ser un factor determinante para conseguir empleo y para demostrar habilidades y conocimientos en el área de desarrollo web.
+Se observó que la mayoría de los desarrolladores encuestados consideran importante contar con un portafolio web, sin embargo, muchos de ellos aún no tienen uno o tienen dificultades para crearlo debido a la falta de conocimientos en diseño y desarrollo web. Por lo tanto, se puede concluir que existe una oportunidad para brindar capacitación y asesoramiento a los desarrolladores en este tema.
+Además, se evidenció que los empleadores valoran positivamente la presencia de un portafolio web en los candidatos a empleo, ya que les permite evaluar las habilidades y conocimientos de manera más efectiva que un simple currículum vitae. Esto sugiere que la creación de un portafolio web puede ser un factor determinante en la competitividad de los desarrolladores en el mercado laboral.
+En conclusión, el desarrollo de un portafolio web es una herramienta esencial para los desarrolladores que buscan destacarse en el mercado laboral y para demostrar sus habilidades y conocimientos en el área de desarrollo web. Se sugiere brindar capacitación y asesoramiento a los desarrolladores en este tema para ayudarlos a crear portafolios web bien diseñados y estructurados. Además, se debe incentivar a los empleadores a valorar la presencia de un portafolio web en los candidatos a empleo como un factor determinante en su evaluación.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -508,6 +612,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -988,7 +1097,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1000,11 +1109,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1032,12 +1139,17 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1065,6 +1177,9 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1080,6 +1195,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1087,13 +1205,16 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1101,6 +1222,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1119,15 +1252,33 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1158,9 +1309,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1281,9 +1429,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1338,9 +1483,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1365,40 +1507,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1728,6 +1840,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -2052,8 +2168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2071,18 +2187,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
+      <c r="A1" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
       <c r="K1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2093,17 +2209,17 @@
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="10" t="s">
+      <c r="A2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="M2" s="4"/>
@@ -2113,335 +2229,335 @@
       <c r="Q2" s="4"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="29"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="1:17" ht="52.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="32"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="29"/>
     </row>
     <row r="5" spans="1:17" ht="57.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="32"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="29"/>
     </row>
     <row r="6" spans="1:17" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="32"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="29"/>
     </row>
     <row r="7" spans="1:17" ht="132" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="33"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="35"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="32"/>
     </row>
     <row r="8" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="83"/>
+    </row>
+    <row r="9" spans="1:17" s="5" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="86"/>
+    </row>
+    <row r="10" spans="1:17" s="5" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="38"/>
+    </row>
+    <row r="11" spans="1:17" s="5" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="38"/>
+    </row>
+    <row r="12" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="38"/>
+    </row>
+    <row r="13" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="84" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="86"/>
+    </row>
+    <row r="14" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="80"/>
+    </row>
+    <row r="15" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="79" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="80"/>
+    </row>
+    <row r="16" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="78"/>
+    </row>
+    <row r="17" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="72"/>
+    </row>
+    <row r="18" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="74"/>
-    </row>
-    <row r="9" spans="1:17" s="5" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="75" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="77"/>
-    </row>
-    <row r="10" spans="1:17" s="5" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="40"/>
-    </row>
-    <row r="11" spans="1:17" s="5" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="40"/>
-    </row>
-    <row r="12" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="40"/>
-    </row>
-    <row r="13" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="75" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="77"/>
-    </row>
-    <row r="14" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="K18" s="41"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="57"/>
+      <c r="C19" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="58"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="K19" s="58"/>
+    </row>
+    <row r="20" spans="1:14" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="52"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+    </row>
+    <row r="21" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="52"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="60"/>
+    </row>
+    <row r="22" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="52"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="62"/>
+    </row>
+    <row r="23" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="70" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="71"/>
-    </row>
-    <row r="15" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="B23" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="35"/>
+    </row>
+    <row r="24" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="70" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="71"/>
-    </row>
-    <row r="16" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="69"/>
-    </row>
-    <row r="17" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="62"/>
-    </row>
-    <row r="18" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="K18" s="42"/>
-    </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="136" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="137"/>
-      <c r="E19" s="138"/>
-      <c r="F19" s="136" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" s="136" t="s">
+      <c r="B24" s="42" t="s">
         <v>55</v>
-      </c>
-      <c r="H19" s="137"/>
-      <c r="I19" s="138"/>
-      <c r="J19" s="136" t="s">
-        <v>56</v>
-      </c>
-      <c r="K19" s="137"/>
-    </row>
-    <row r="20" spans="1:14" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="48"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="140"/>
-      <c r="I20" s="141"/>
-      <c r="J20" s="139"/>
-      <c r="K20" s="140"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-    </row>
-    <row r="21" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="48"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="140"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="140"/>
-      <c r="I21" s="141"/>
-      <c r="J21" s="139"/>
-      <c r="K21" s="140"/>
-    </row>
-    <row r="22" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="48"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="142"/>
-      <c r="D22" s="143"/>
-      <c r="E22" s="144"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="142"/>
-      <c r="H22" s="143"/>
-      <c r="I22" s="144"/>
-      <c r="J22" s="142"/>
-      <c r="K22" s="143"/>
-    </row>
-    <row r="23" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="145" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="37"/>
-    </row>
-    <row r="24" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="146" t="s">
-        <v>58</v>
       </c>
       <c r="C24" s="43"/>
       <c r="D24" s="43"/>
@@ -2454,11 +2570,11 @@
       <c r="K24" s="44"/>
     </row>
     <row r="25" spans="1:14" ht="46.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="146" t="s">
-        <v>59</v>
+      <c r="A25" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>56</v>
       </c>
       <c r="C25" s="43"/>
       <c r="D25" s="43"/>
@@ -2471,11 +2587,11 @@
       <c r="K25" s="44"/>
     </row>
     <row r="26" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="146" t="s">
-        <v>60</v>
+      <c r="B26" s="42" t="s">
+        <v>57</v>
       </c>
       <c r="C26" s="43"/>
       <c r="D26" s="43"/>
@@ -2488,7 +2604,7 @@
       <c r="K26" s="44"/>
     </row>
     <row r="27" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="48"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="43"/>
       <c r="C27" s="43"/>
       <c r="D27" s="43"/>
@@ -2501,7 +2617,7 @@
       <c r="K27" s="44"/>
     </row>
     <row r="28" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="48"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="43"/>
       <c r="C28" s="43"/>
       <c r="D28" s="43"/>
@@ -2514,214 +2630,214 @@
       <c r="K28" s="44"/>
     </row>
     <row r="29" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="55"/>
+    </row>
+    <row r="30" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="53"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="55"/>
+    </row>
+    <row r="31" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="53"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="55"/>
+    </row>
+    <row r="32" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="53"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="55"/>
+    </row>
+    <row r="33" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="55"/>
+    </row>
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="50" t="s">
+      <c r="B34" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="66"/>
+    </row>
+    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="45"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="65"/>
+      <c r="K35" s="66"/>
+    </row>
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="45"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="66"/>
+    </row>
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="45"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="66"/>
+    </row>
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="45"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="66"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="45"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="65"/>
+      <c r="J39" s="65"/>
+      <c r="K39" s="66"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="51"/>
-    </row>
-    <row r="30" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="49"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="51"/>
-    </row>
-    <row r="31" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="49"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="51"/>
-    </row>
-    <row r="32" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="49"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="51"/>
-    </row>
-    <row r="33" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="50" t="s">
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="66"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="51"/>
-    </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="147" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="55"/>
-    </row>
-    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="56"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="55"/>
-    </row>
-    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="56"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="55"/>
-    </row>
-    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="56"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="55"/>
-    </row>
-    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="56"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="54"/>
-      <c r="K38" s="55"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="56"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="55"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="147" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="54"/>
-      <c r="K40" s="55"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="147" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="55"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="65"/>
+      <c r="J41" s="65"/>
+      <c r="K41" s="66"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="45" t="s">
+      <c r="A42" s="48" t="s">
         <v>21</v>
       </c>
       <c r="B42" s="46"/>
       <c r="C42" s="46"/>
-      <c r="D42" s="147" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="54"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="54"/>
-      <c r="J42" s="54"/>
-      <c r="K42" s="55"/>
+      <c r="D42" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="65"/>
+      <c r="K42" s="66"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="56" t="s">
-        <v>68</v>
+      <c r="A43" s="45" t="s">
+        <v>65</v>
       </c>
       <c r="B43" s="46"/>
       <c r="C43" s="46"/>
@@ -2735,7 +2851,7 @@
       <c r="K43" s="47"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="45"/>
+      <c r="A44" s="48"/>
       <c r="B44" s="46"/>
       <c r="C44" s="46"/>
       <c r="D44" s="46"/>
@@ -2748,7 +2864,7 @@
       <c r="K44" s="47"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="45"/>
+      <c r="A45" s="48"/>
       <c r="B45" s="46"/>
       <c r="C45" s="46"/>
       <c r="D45" s="46"/>
@@ -2761,7 +2877,7 @@
       <c r="K45" s="47"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="45"/>
+      <c r="A46" s="48"/>
       <c r="B46" s="46"/>
       <c r="C46" s="46"/>
       <c r="D46" s="46"/>
@@ -2774,8 +2890,8 @@
       <c r="K46" s="47"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="56" t="s">
-        <v>67</v>
+      <c r="A47" s="45" t="s">
+        <v>64</v>
       </c>
       <c r="B47" s="46"/>
       <c r="C47" s="46"/>
@@ -2789,7 +2905,7 @@
       <c r="K47" s="47"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="45"/>
+      <c r="A48" s="48"/>
       <c r="B48" s="46"/>
       <c r="C48" s="46"/>
       <c r="D48" s="46"/>
@@ -2802,7 +2918,7 @@
       <c r="K48" s="47"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="45"/>
+      <c r="A49" s="48"/>
       <c r="B49" s="46"/>
       <c r="C49" s="46"/>
       <c r="D49" s="46"/>
@@ -2815,7 +2931,7 @@
       <c r="K49" s="47"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="45"/>
+      <c r="A50" s="48"/>
       <c r="B50" s="46"/>
       <c r="C50" s="46"/>
       <c r="D50" s="46"/>
@@ -2828,7 +2944,7 @@
       <c r="K50" s="47"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="45"/>
+      <c r="A51" s="48"/>
       <c r="B51" s="46"/>
       <c r="C51" s="46"/>
       <c r="D51" s="46"/>
@@ -2841,17 +2957,17 @@
       <c r="K51" s="47"/>
     </row>
     <row r="52" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="57"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="58"/>
-      <c r="D52" s="58"/>
-      <c r="E52" s="58"/>
-      <c r="F52" s="58"/>
-      <c r="G52" s="58"/>
-      <c r="H52" s="58"/>
-      <c r="I52" s="58"/>
-      <c r="J52" s="58"/>
-      <c r="K52" s="59"/>
+      <c r="A52" s="67"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="68"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="68"/>
+      <c r="G52" s="68"/>
+      <c r="H52" s="68"/>
+      <c r="I52" s="68"/>
+      <c r="J52" s="68"/>
+      <c r="K52" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="37">
@@ -2903,8 +3019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2913,142 +3029,186 @@
     <col min="3" max="3" width="18.75" customWidth="1"/>
     <col min="4" max="4" width="24.375" customWidth="1"/>
     <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="23.125" customWidth="1"/>
+    <col min="7" max="7" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="84"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="93"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="81"/>
+      <c r="A2" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="90"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="21"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="21"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="21"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="21"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="21"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="21"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="21"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="21"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="21"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+    <row r="4" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
+        <v>44941</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="120.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>44910</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="120.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
+        <v>44972</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+    </row>
+    <row r="8" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+    </row>
+    <row r="10" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+    </row>
+    <row r="11" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+    </row>
+    <row r="13" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="23"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
-      <c r="G13" s="24"/>
+      <c r="G13" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3056,7 +3216,8 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3064,8 +3225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3075,234 +3236,262 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="96"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="96"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
+      <c r="A3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="97"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
+      <c r="A4" s="106"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
     </row>
     <row r="5" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="87"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="96"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
+      <c r="A6" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="97" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
+      <c r="A7" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
+        <v>39</v>
+      </c>
+      <c r="B8" s="97" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
     </row>
     <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="46"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="91"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="100"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="92"/>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="94"/>
+      <c r="A11" s="101"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="103"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="92"/>
-      <c r="B12" s="93"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="94"/>
+      <c r="A12" s="101"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="103"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="88"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="95"/>
+      <c r="A13" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="97" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="104"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="88"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="95"/>
+      <c r="B14" s="97" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="97"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="104"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="95"/>
+      <c r="B15" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="104"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="98" t="s">
+      <c r="A16" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="98"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="88"/>
-      <c r="B17" s="88"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
+      <c r="A17" s="97" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="97"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
+      <c r="A18" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
+      <c r="A19" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
+      <c r="A20" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
+      <c r="A21" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
+      <c r="A22" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
+      <c r="A23" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
+      <c r="A24" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
+      <c r="A25" s="65"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
+      <c r="A27" s="65"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
+      <c r="A28" s="65"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
+      <c r="A29" s="65"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="54"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
+      <c r="A30" s="65"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -3342,8 +3531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3352,157 +3541,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
     </row>
     <row r="2" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="101"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="110"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="104"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="113"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="105"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="107"/>
+      <c r="A4" s="114"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="116"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="108"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="110"/>
+      <c r="A5" s="143" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="118"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="111"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="113"/>
+      <c r="A6" s="119"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="121"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="111"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="113"/>
+      <c r="A7" s="119"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="121"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="111"/>
-      <c r="B8" s="112"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="113"/>
+      <c r="A8" s="119"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="121"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="111"/>
-      <c r="B9" s="112"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="113"/>
+      <c r="A9" s="119"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="121"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="111"/>
-      <c r="B10" s="112"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="113"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="121"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="111"/>
-      <c r="B11" s="112"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="113"/>
+      <c r="A11" s="119"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="121"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="111"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="113"/>
+      <c r="A12" s="119"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="121"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="111"/>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="113"/>
+      <c r="A13" s="119"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="121"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="111"/>
-      <c r="B14" s="112"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="113"/>
+      <c r="A14" s="119"/>
+      <c r="B14" s="120"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="121"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="111"/>
-      <c r="B15" s="112"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="113"/>
+      <c r="A15" s="119"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="121"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="111"/>
-      <c r="B16" s="112"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="113"/>
+      <c r="A16" s="119"/>
+      <c r="B16" s="120"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="121"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="111"/>
-      <c r="B17" s="112"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="113"/>
+      <c r="A17" s="119"/>
+      <c r="B17" s="120"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="121"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="111"/>
-      <c r="B18" s="112"/>
-      <c r="C18" s="112"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="113"/>
+      <c r="A18" s="119"/>
+      <c r="B18" s="120"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="121"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="111"/>
-      <c r="B19" s="112"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="113"/>
+      <c r="A19" s="119"/>
+      <c r="B19" s="120"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="121"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="111"/>
-      <c r="B20" s="112"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="113"/>
+      <c r="A20" s="119"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="121"/>
     </row>
     <row r="21" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="114"/>
-      <c r="B21" s="115"/>
-      <c r="C21" s="115"/>
-      <c r="D21" s="115"/>
-      <c r="E21" s="116"/>
+      <c r="A21" s="122"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3521,7 +3712,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:G22"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3530,208 +3721,208 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="120"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="128"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="123"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="131"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="124"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="126"/>
+      <c r="A3" s="132"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="134"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="127" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="129"/>
+      <c r="A4" s="144" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="136"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="130"/>
-      <c r="B5" s="131"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="132"/>
+      <c r="A5" s="137"/>
+      <c r="B5" s="138"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="139"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="130"/>
-      <c r="B6" s="131"/>
-      <c r="C6" s="131"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="131"/>
-      <c r="G6" s="132"/>
+      <c r="A6" s="137"/>
+      <c r="B6" s="138"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="139"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="130"/>
-      <c r="B7" s="131"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="132"/>
+      <c r="A7" s="137"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="139"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="130"/>
-      <c r="B8" s="131"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="132"/>
+      <c r="A8" s="137"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="139"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="130"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="132"/>
+      <c r="A9" s="137"/>
+      <c r="B9" s="138"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="139"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="130"/>
-      <c r="B10" s="131"/>
-      <c r="C10" s="131"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="132"/>
+      <c r="A10" s="137"/>
+      <c r="B10" s="138"/>
+      <c r="C10" s="138"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="139"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="130"/>
-      <c r="B11" s="131"/>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="132"/>
+      <c r="A11" s="137"/>
+      <c r="B11" s="138"/>
+      <c r="C11" s="138"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="139"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="130"/>
-      <c r="B12" s="131"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="132"/>
+      <c r="A12" s="137"/>
+      <c r="B12" s="138"/>
+      <c r="C12" s="138"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="139"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="130"/>
-      <c r="B13" s="131"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="132"/>
+      <c r="A13" s="137"/>
+      <c r="B13" s="138"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="139"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="130"/>
-      <c r="B14" s="131"/>
-      <c r="C14" s="131"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="132"/>
+      <c r="A14" s="137"/>
+      <c r="B14" s="138"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="139"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="130"/>
-      <c r="B15" s="131"/>
-      <c r="C15" s="131"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="131"/>
-      <c r="G15" s="132"/>
+      <c r="A15" s="137"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="139"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="130"/>
-      <c r="B16" s="131"/>
-      <c r="C16" s="131"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="132"/>
+      <c r="A16" s="137"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="139"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="130"/>
-      <c r="B17" s="131"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="132"/>
+      <c r="A17" s="137"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="139"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="130"/>
-      <c r="B18" s="131"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="131"/>
-      <c r="F18" s="131"/>
-      <c r="G18" s="132"/>
+      <c r="A18" s="137"/>
+      <c r="B18" s="138"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="138"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="139"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="130"/>
-      <c r="B19" s="131"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="131"/>
-      <c r="G19" s="132"/>
+      <c r="A19" s="137"/>
+      <c r="B19" s="138"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="139"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="130"/>
-      <c r="B20" s="131"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="131"/>
-      <c r="F20" s="131"/>
-      <c r="G20" s="132"/>
+      <c r="A20" s="137"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="139"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="130"/>
-      <c r="B21" s="131"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="131"/>
-      <c r="G21" s="132"/>
+      <c r="A21" s="137"/>
+      <c r="B21" s="138"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="139"/>
     </row>
     <row r="22" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="133"/>
-      <c r="B22" s="134"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="134"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="135"/>
+      <c r="A22" s="140"/>
+      <c r="B22" s="141"/>
+      <c r="C22" s="141"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3748,8 +3939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3758,208 +3949,208 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="120"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="128"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="123"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="131"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="124"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="126"/>
+      <c r="A3" s="132"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="134"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="127" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="129"/>
+      <c r="A4" s="144" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="136"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="130"/>
-      <c r="B5" s="131"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="132"/>
+      <c r="A5" s="137"/>
+      <c r="B5" s="138"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="139"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="130"/>
-      <c r="B6" s="131"/>
-      <c r="C6" s="131"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="131"/>
-      <c r="G6" s="132"/>
+      <c r="A6" s="137"/>
+      <c r="B6" s="138"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="139"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="130"/>
-      <c r="B7" s="131"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="132"/>
+      <c r="A7" s="137"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="139"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="130"/>
-      <c r="B8" s="131"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="132"/>
+      <c r="A8" s="137"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="139"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="130"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="132"/>
+      <c r="A9" s="137"/>
+      <c r="B9" s="138"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="139"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="130"/>
-      <c r="B10" s="131"/>
-      <c r="C10" s="131"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="132"/>
+      <c r="A10" s="137"/>
+      <c r="B10" s="138"/>
+      <c r="C10" s="138"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="139"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="130"/>
-      <c r="B11" s="131"/>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="132"/>
+      <c r="A11" s="137"/>
+      <c r="B11" s="138"/>
+      <c r="C11" s="138"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="139"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="130"/>
-      <c r="B12" s="131"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="132"/>
+      <c r="A12" s="137"/>
+      <c r="B12" s="138"/>
+      <c r="C12" s="138"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="139"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="130"/>
-      <c r="B13" s="131"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="132"/>
+      <c r="A13" s="137"/>
+      <c r="B13" s="138"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="139"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="130"/>
-      <c r="B14" s="131"/>
-      <c r="C14" s="131"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="132"/>
+      <c r="A14" s="137"/>
+      <c r="B14" s="138"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="139"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="130"/>
-      <c r="B15" s="131"/>
-      <c r="C15" s="131"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="131"/>
-      <c r="G15" s="132"/>
+      <c r="A15" s="137"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="139"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="130"/>
-      <c r="B16" s="131"/>
-      <c r="C16" s="131"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="132"/>
+      <c r="A16" s="137"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="139"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="130"/>
-      <c r="B17" s="131"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="132"/>
+      <c r="A17" s="137"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="139"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="130"/>
-      <c r="B18" s="131"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="131"/>
-      <c r="F18" s="131"/>
-      <c r="G18" s="132"/>
+      <c r="A18" s="137"/>
+      <c r="B18" s="138"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="138"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="139"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="130"/>
-      <c r="B19" s="131"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="131"/>
-      <c r="G19" s="132"/>
+      <c r="A19" s="137"/>
+      <c r="B19" s="138"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="139"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="130"/>
-      <c r="B20" s="131"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="131"/>
-      <c r="F20" s="131"/>
-      <c r="G20" s="132"/>
+      <c r="A20" s="137"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="139"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="130"/>
-      <c r="B21" s="131"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="131"/>
-      <c r="G21" s="132"/>
+      <c r="A21" s="137"/>
+      <c r="B21" s="138"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="139"/>
     </row>
     <row r="22" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="133"/>
-      <c r="B22" s="134"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="134"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="135"/>
+      <c r="A22" s="140"/>
+      <c r="B22" s="141"/>
+      <c r="C22" s="141"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="3">
